--- a/Products/Static_Documents/Examen de candidatura/tiempos de estimación.xlsx
+++ b/Products/Static_Documents/Examen de candidatura/tiempos de estimación.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0abcc15bdc5c59/GitHub/Tesis/Products/Static_Documents/Examen de candidatura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97670FC-BEBE-4730-B392-AC9111D8210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{F97670FC-BEBE-4730-B392-AC9111D8210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BA03E5-256D-4A81-BD0A-B84D2737ABA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -228,26 +240,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -259,18 +274,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,174 +640,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.1055760383605957</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4.2521953582763672E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>7.8335762023925781E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.1096739768981934</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.1625015735626221</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>5.0880341529846191</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3.9189572334289551</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.14116048812866211</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>2.8171546459197998</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0.6145164966583252</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>8.2360343933105469</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>8.1266193389892578</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>5.2903602123260498</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>6.7232682704925537</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>39.544368358453113</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>26.819268393516541</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>53.177867690722152</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>46.091081845760343</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>21.440476461251581</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>32.54203225771586</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>6.3643455505371094E-3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>4.5232772827148438E-3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>4.413604736328125E-3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>4.7476291656494141E-3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.29761028289794922</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>0.1978952884674072</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.37976837158203119</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.21424007415771479</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>0.10491847991943359</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>0.1080238819122314</v>
       </c>
     </row>
@@ -917,6 +930,11 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
